--- a/BalanceSheet/LBRDK_bal.xlsx
+++ b/BalanceSheet/LBRDK_bal.xlsx
@@ -2907,19 +2907,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-83639000.0</v>
+        <v>1978000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>24979000.0</v>
+        <v>1037000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>24978000.0</v>
+        <v>1018000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-2774000.0</v>
+        <v>993000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>29466000.0</v>
+        <v>1000000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>972005000.0</v>
